--- a/市場_2025改修/基本設計_2025/1_画面設計書(メニュー).xlsx
+++ b/市場_2025改修/基本設計_2025/1_画面設計書(メニュー).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\01_Work\Git\Git001\市場_2025改修\基本設計_2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\Git\si001\市場_2025改修\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B9EE5D-532E-41E5-92A9-0E224EB3DA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C59C56-2CAA-4ED6-9550-D0B10075643C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="170" r:id="rId1"/>
@@ -867,6 +867,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -882,17 +891,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -900,26 +918,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -938,36 +968,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1376,12 +1376,12 @@
       <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="22.5" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="22.5" customHeight="1"/>
   <cols>
-    <col min="1" max="12" width="8.75" style="7"/>
-    <col min="13" max="13" width="8.25" style="7" customWidth="1"/>
-    <col min="14" max="14" width="8.875" style="7" customWidth="1"/>
-    <col min="15" max="16384" width="8.75" style="7"/>
+    <col min="1" max="12" width="8.77734375" style="7"/>
+    <col min="13" max="13" width="8.21875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="7" customWidth="1"/>
+    <col min="15" max="16384" width="8.77734375" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:16" ht="22.5" customHeight="1">
@@ -1405,50 +1405,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -1471,10 +1471,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="43"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -1497,42 +1497,42 @@
         <v>20</v>
       </c>
       <c r="G14" s="43"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="42" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="43"/>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="42" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="43"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="51"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="42" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="43"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="51"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
       <c r="N17" s="7" t="s">
         <v>33</v>
       </c>
@@ -1560,6 +1560,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -1568,12 +1574,6 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1594,60 +1594,60 @@
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="18.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="24" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="24" customWidth="1"/>
-    <col min="4" max="14" width="7.125" style="24" customWidth="1"/>
-    <col min="15" max="18" width="10.625" style="24" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="24" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="24" customWidth="1"/>
+    <col min="4" max="14" width="7.109375" style="24" customWidth="1"/>
+    <col min="15" max="18" width="10.6640625" style="24" customWidth="1"/>
     <col min="19" max="16384" width="7" style="24"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -1673,437 +1673,437 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59" t="s">
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="57">
         <v>44621</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56" t="s">
+      <c r="E5" s="58"/>
+      <c r="F5" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="59">
         <v>45870</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2114,30 +2114,46 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I11:R11"/>
     <mergeCell ref="I12:R12"/>
     <mergeCell ref="B9:C9"/>
@@ -2154,46 +2170,30 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2210,221 +2210,221 @@
   <dimension ref="A1:BF47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="BC25" sqref="BC25"/>
+      <selection sqref="A1:BF47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.5" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="10.8"/>
   <cols>
-    <col min="1" max="16384" width="2.5" style="1"/>
+    <col min="1" max="16384" width="2.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="69" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="75" t="str">
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="63" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="73" t="s">
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="68" t="s">
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68"/>
-      <c r="AS1" s="68"/>
-      <c r="AT1" s="68"/>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="73" t="s">
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="68"/>
-      <c r="BB1" s="68"/>
-      <c r="BC1" s="68"/>
-      <c r="BD1" s="68"/>
-      <c r="BE1" s="68"/>
-      <c r="BF1" s="68"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="67"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67"/>
+      <c r="BE1" s="67"/>
+      <c r="BF1" s="67"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="69" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="70" t="s">
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="73" t="s">
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="74">
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="71">
         <v>45748</v>
       </c>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="68"/>
-      <c r="AS2" s="68"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="73" t="s">
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="73"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="73"/>
-      <c r="AZ2" s="73"/>
-      <c r="BA2" s="68"/>
-      <c r="BB2" s="68"/>
-      <c r="BC2" s="68"/>
-      <c r="BD2" s="68"/>
-      <c r="BE2" s="68"/>
-      <c r="BF2" s="68"/>
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="67"/>
+      <c r="BB2" s="67"/>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="62" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="64"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="74"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -2435,98 +2435,98 @@
     <row r="5" spans="1:58">
       <c r="A5" s="2"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="67" t="s">
+      <c r="AO5" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="65" t="s">
+      <c r="AP5" s="54"/>
+      <c r="AQ5" s="54"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54"/>
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="65"/>
-      <c r="BC5" s="65"/>
-      <c r="BD5" s="65"/>
-      <c r="BE5" s="65"/>
-      <c r="BF5" s="66"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="75"/>
+      <c r="BC5" s="75"/>
+      <c r="BD5" s="75"/>
+      <c r="BE5" s="75"/>
+      <c r="BF5" s="76"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="67"/>
-      <c r="AP6" s="52"/>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="65"/>
-      <c r="AV6" s="65"/>
-      <c r="AW6" s="65"/>
-      <c r="AX6" s="65"/>
-      <c r="AY6" s="65"/>
-      <c r="AZ6" s="65"/>
-      <c r="BA6" s="65"/>
-      <c r="BB6" s="65"/>
-      <c r="BC6" s="65"/>
-      <c r="BD6" s="65"/>
-      <c r="BE6" s="65"/>
-      <c r="BF6" s="66"/>
+      <c r="AO6" s="77"/>
+      <c r="AP6" s="54"/>
+      <c r="AQ6" s="54"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="54"/>
+      <c r="AU6" s="75"/>
+      <c r="AV6" s="75"/>
+      <c r="AW6" s="75"/>
+      <c r="AX6" s="75"/>
+      <c r="AY6" s="75"/>
+      <c r="AZ6" s="75"/>
+      <c r="BA6" s="75"/>
+      <c r="BB6" s="75"/>
+      <c r="BC6" s="75"/>
+      <c r="BD6" s="75"/>
+      <c r="BE6" s="75"/>
+      <c r="BF6" s="76"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="67" t="s">
+      <c r="AO7" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="AP7" s="52"/>
-      <c r="AQ7" s="52"/>
-      <c r="AR7" s="52"/>
-      <c r="AS7" s="52"/>
-      <c r="AT7" s="52"/>
-      <c r="AU7" s="65" t="s">
+      <c r="AP7" s="54"/>
+      <c r="AQ7" s="54"/>
+      <c r="AR7" s="54"/>
+      <c r="AS7" s="54"/>
+      <c r="AT7" s="54"/>
+      <c r="AU7" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="AV7" s="65"/>
-      <c r="AW7" s="65"/>
-      <c r="AX7" s="65"/>
-      <c r="AY7" s="65"/>
-      <c r="AZ7" s="65"/>
-      <c r="BA7" s="65"/>
-      <c r="BB7" s="65"/>
-      <c r="BC7" s="65"/>
-      <c r="BD7" s="65"/>
-      <c r="BE7" s="65"/>
-      <c r="BF7" s="66"/>
+      <c r="AV7" s="75"/>
+      <c r="AW7" s="75"/>
+      <c r="AX7" s="75"/>
+      <c r="AY7" s="75"/>
+      <c r="AZ7" s="75"/>
+      <c r="BA7" s="75"/>
+      <c r="BB7" s="75"/>
+      <c r="BC7" s="75"/>
+      <c r="BD7" s="75"/>
+      <c r="BE7" s="75"/>
+      <c r="BF7" s="76"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="52"/>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="52"/>
-      <c r="AT8" s="52"/>
-      <c r="AU8" s="65"/>
-      <c r="AV8" s="65"/>
-      <c r="AW8" s="65"/>
-      <c r="AX8" s="65"/>
-      <c r="AY8" s="65"/>
-      <c r="AZ8" s="65"/>
-      <c r="BA8" s="65"/>
-      <c r="BB8" s="65"/>
-      <c r="BC8" s="65"/>
-      <c r="BD8" s="65"/>
-      <c r="BE8" s="65"/>
-      <c r="BF8" s="66"/>
+      <c r="AO8" s="77"/>
+      <c r="AP8" s="54"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
+      <c r="AT8" s="54"/>
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="75"/>
+      <c r="AX8" s="75"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="75"/>
+      <c r="BA8" s="75"/>
+      <c r="BB8" s="75"/>
+      <c r="BC8" s="75"/>
+      <c r="BD8" s="75"/>
+      <c r="BE8" s="75"/>
+      <c r="BF8" s="76"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="2"/>
@@ -2978,11 +2978,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AO7:AT8"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="U2:AI2"/>
@@ -2991,16 +2992,15 @@
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="92" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="94" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/市場_2025改修/基本設計_2025/1_画面設計書(メニュー).xlsx
+++ b/市場_2025改修/基本設計_2025/1_画面設計書(メニュー).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\Git\si001\市場_2025改修\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C59C56-2CAA-4ED6-9550-D0B10075643C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69B1069-1C88-48D5-94FD-4E3FEE7428F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>作成者</t>
   </si>
@@ -867,15 +867,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -891,38 +882,83 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -932,42 +968,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1405,50 +1405,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="47" t="s">
+      <c r="D6" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
-      <c r="H6" s="48"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="49" t="s">
+      <c r="C7" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-      <c r="L7" s="50"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="51"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="47"/>
+      <c r="H7" s="47"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="47"/>
+      <c r="K7" s="47"/>
+      <c r="L7" s="47"/>
+      <c r="M7" s="47"/>
+      <c r="N7" s="48"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="47" t="s">
+      <c r="D8" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
-      <c r="H8" s="48"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -1471,10 +1471,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="43"/>
-      <c r="H12" s="44"/>
-      <c r="I12" s="45"/>
-      <c r="J12" s="45"/>
-      <c r="K12" s="46"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="51"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -1497,42 +1497,42 @@
         <v>20</v>
       </c>
       <c r="G14" s="43"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="45"/>
-      <c r="J14" s="45"/>
-      <c r="K14" s="46"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="51"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="42" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="43"/>
-      <c r="H15" s="44" t="s">
+      <c r="H15" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="45"/>
-      <c r="J15" s="45"/>
-      <c r="K15" s="46"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="51"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="42" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="43"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="45"/>
-      <c r="J16" s="45"/>
-      <c r="K16" s="46"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="51"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="42" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="43"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="45"/>
-      <c r="J17" s="45"/>
-      <c r="K17" s="46"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="51"/>
       <c r="N17" s="7" t="s">
         <v>33</v>
       </c>
@@ -1560,12 +1560,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -1574,6 +1568,12 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1602,52 +1602,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="56" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
-      <c r="K1" s="56"/>
-      <c r="L1" s="56"/>
-      <c r="M1" s="56"/>
-      <c r="N1" s="56"/>
-      <c r="O1" s="56"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="55"/>
-      <c r="R1" s="55"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-      <c r="J2" s="56"/>
-      <c r="K2" s="56"/>
-      <c r="L2" s="56"/>
-      <c r="M2" s="56"/>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="55"/>
+      <c r="Q2" s="60"/>
+      <c r="R2" s="60"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -1673,437 +1673,437 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53" t="s">
+      <c r="E4" s="59"/>
+      <c r="F4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53" t="s">
+      <c r="G4" s="59"/>
+      <c r="H4" s="59"/>
+      <c r="I4" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
+      <c r="O4" s="59"/>
+      <c r="P4" s="59"/>
+      <c r="Q4" s="59"/>
+      <c r="R4" s="59"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="57">
+      <c r="B5" s="55">
         <v>44621</v>
       </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="58" t="s">
+      <c r="C5" s="55"/>
+      <c r="D5" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58" t="s">
+      <c r="E5" s="56"/>
+      <c r="F5" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="58"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="61"/>
-      <c r="J5" s="61"/>
-      <c r="K5" s="61"/>
-      <c r="L5" s="61"/>
-      <c r="M5" s="61"/>
-      <c r="N5" s="61"/>
-      <c r="O5" s="61"/>
-      <c r="P5" s="61"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="61"/>
+      <c r="G5" s="56"/>
+      <c r="H5" s="56"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="K5" s="57"/>
+      <c r="L5" s="57"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="57"/>
+      <c r="O5" s="57"/>
+      <c r="P5" s="57"/>
+      <c r="Q5" s="57"/>
+      <c r="R5" s="57"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="59">
+      <c r="B6" s="53">
         <v>45870</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="60" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="54" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="54"/>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="59"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
-      <c r="M7" s="54"/>
-      <c r="N7" s="54"/>
-      <c r="O7" s="54"/>
-      <c r="P7" s="54"/>
-      <c r="Q7" s="54"/>
-      <c r="R7" s="54"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="54"/>
-      <c r="J8" s="54"/>
-      <c r="K8" s="54"/>
-      <c r="L8" s="54"/>
-      <c r="M8" s="54"/>
-      <c r="N8" s="54"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="54"/>
-      <c r="R8" s="54"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="54"/>
-      <c r="M9" s="54"/>
-      <c r="N9" s="54"/>
-      <c r="O9" s="54"/>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="52"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="59"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="54"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="59"/>
-      <c r="C11" s="59"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="59"/>
-      <c r="C12" s="59"/>
-      <c r="D12" s="60"/>
-      <c r="E12" s="60"/>
-      <c r="F12" s="60"/>
-      <c r="G12" s="60"/>
-      <c r="H12" s="60"/>
-      <c r="I12" s="54"/>
-      <c r="J12" s="54"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="54"/>
-      <c r="N12" s="54"/>
-      <c r="O12" s="54"/>
-      <c r="P12" s="54"/>
-      <c r="Q12" s="54"/>
-      <c r="R12" s="54"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="60"/>
-      <c r="E13" s="60"/>
-      <c r="F13" s="60"/>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="54"/>
-      <c r="J13" s="54"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="54"/>
-      <c r="N13" s="54"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="54"/>
-      <c r="Q13" s="54"/>
-      <c r="R13" s="54"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="60"/>
-      <c r="F14" s="60"/>
-      <c r="G14" s="60"/>
-      <c r="H14" s="60"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="54"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="54"/>
-      <c r="N14" s="54"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="54"/>
-      <c r="Q14" s="54"/>
-      <c r="R14" s="54"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="59"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="60"/>
-      <c r="F15" s="60"/>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
+      <c r="R15" s="52"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="59"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="54"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="54"/>
-      <c r="N16" s="54"/>
-      <c r="O16" s="54"/>
-      <c r="P16" s="54"/>
-      <c r="Q16" s="54"/>
-      <c r="R16" s="54"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
+      <c r="R16" s="52"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="59"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="60"/>
-      <c r="F17" s="60"/>
-      <c r="G17" s="60"/>
-      <c r="H17" s="60"/>
-      <c r="I17" s="54"/>
-      <c r="J17" s="54"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="54"/>
-      <c r="N17" s="54"/>
-      <c r="O17" s="54"/>
-      <c r="P17" s="54"/>
-      <c r="Q17" s="54"/>
-      <c r="R17" s="54"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="54"/>
+      <c r="H17" s="54"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
+      <c r="R17" s="52"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
-      <c r="I18" s="54"/>
-      <c r="J18" s="54"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="54"/>
-      <c r="N18" s="54"/>
-      <c r="O18" s="54"/>
-      <c r="P18" s="54"/>
-      <c r="Q18" s="54"/>
-      <c r="R18" s="54"/>
+      <c r="B18" s="53"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="54"/>
+      <c r="H18" s="54"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
+      <c r="R18" s="52"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="54"/>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="54"/>
-      <c r="Q19" s="54"/>
-      <c r="R19" s="54"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="54"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
+      <c r="R19" s="52"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="54"/>
-      <c r="J20" s="54"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="54"/>
-      <c r="N20" s="54"/>
-      <c r="O20" s="54"/>
-      <c r="P20" s="54"/>
-      <c r="Q20" s="54"/>
-      <c r="R20" s="54"/>
+      <c r="B20" s="53"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="54"/>
+      <c r="H20" s="54"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
+      <c r="R20" s="52"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
-      <c r="F21" s="60"/>
-      <c r="G21" s="60"/>
-      <c r="H21" s="60"/>
-      <c r="I21" s="54"/>
-      <c r="J21" s="54"/>
-      <c r="K21" s="54"/>
-      <c r="L21" s="54"/>
-      <c r="M21" s="54"/>
-      <c r="N21" s="54"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="54"/>
-      <c r="Q21" s="54"/>
-      <c r="R21" s="54"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
+      <c r="H21" s="54"/>
+      <c r="I21" s="52"/>
+      <c r="J21" s="52"/>
+      <c r="K21" s="52"/>
+      <c r="L21" s="52"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="52"/>
+      <c r="O21" s="52"/>
+      <c r="P21" s="52"/>
+      <c r="Q21" s="52"/>
+      <c r="R21" s="52"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="54"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
+      <c r="R22" s="52"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2114,14 +2114,62 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I19:R19"/>
     <mergeCell ref="I20:R20"/>
     <mergeCell ref="B17:C17"/>
@@ -2138,62 +2186,14 @@
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="D20:E20"/>
     <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2210,7 +2210,7 @@
   <dimension ref="A1:BF47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:BF47"/>
+      <selection activeCell="BL9" sqref="BL9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="10.8"/>
@@ -2219,212 +2219,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="62" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+      <c r="L1" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="62"/>
-      <c r="N1" s="62"/>
-      <c r="O1" s="62"/>
-      <c r="P1" s="62"/>
-      <c r="Q1" s="62"/>
-      <c r="R1" s="62"/>
-      <c r="S1" s="62"/>
-      <c r="T1" s="62"/>
-      <c r="U1" s="63" t="str">
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="75" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="66" t="s">
+      <c r="V1" s="76"/>
+      <c r="W1" s="76"/>
+      <c r="X1" s="76"/>
+      <c r="Y1" s="76"/>
+      <c r="Z1" s="76"/>
+      <c r="AA1" s="76"/>
+      <c r="AB1" s="76"/>
+      <c r="AC1" s="76"/>
+      <c r="AD1" s="76"/>
+      <c r="AE1" s="76"/>
+      <c r="AF1" s="76"/>
+      <c r="AG1" s="76"/>
+      <c r="AH1" s="76"/>
+      <c r="AI1" s="77"/>
+      <c r="AJ1" s="73" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="66"/>
-      <c r="AL1" s="66"/>
-      <c r="AM1" s="66"/>
-      <c r="AN1" s="66"/>
-      <c r="AO1" s="67" t="s">
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="73"/>
+      <c r="AM1" s="73"/>
+      <c r="AN1" s="73"/>
+      <c r="AO1" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="67"/>
-      <c r="AQ1" s="67"/>
-      <c r="AR1" s="67"/>
-      <c r="AS1" s="67"/>
-      <c r="AT1" s="67"/>
-      <c r="AU1" s="67"/>
-      <c r="AV1" s="66" t="s">
+      <c r="AP1" s="68"/>
+      <c r="AQ1" s="68"/>
+      <c r="AR1" s="68"/>
+      <c r="AS1" s="68"/>
+      <c r="AT1" s="68"/>
+      <c r="AU1" s="68"/>
+      <c r="AV1" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="66"/>
-      <c r="AX1" s="66"/>
-      <c r="AY1" s="66"/>
-      <c r="AZ1" s="66"/>
-      <c r="BA1" s="67"/>
-      <c r="BB1" s="67"/>
-      <c r="BC1" s="67"/>
-      <c r="BD1" s="67"/>
-      <c r="BE1" s="67"/>
-      <c r="BF1" s="67"/>
+      <c r="AW1" s="73"/>
+      <c r="AX1" s="73"/>
+      <c r="AY1" s="73"/>
+      <c r="AZ1" s="73"/>
+      <c r="BA1" s="68" t="s">
+        <v>14</v>
+      </c>
+      <c r="BB1" s="68"/>
+      <c r="BC1" s="68"/>
+      <c r="BD1" s="68"/>
+      <c r="BE1" s="68"/>
+      <c r="BF1" s="68"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="52"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="62" t="s">
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
+      <c r="H2" s="58"/>
+      <c r="I2" s="58"/>
+      <c r="J2" s="58"/>
+      <c r="K2" s="58"/>
+      <c r="L2" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="62"/>
-      <c r="N2" s="62"/>
-      <c r="O2" s="62"/>
-      <c r="P2" s="62"/>
-      <c r="Q2" s="62"/>
-      <c r="R2" s="62"/>
-      <c r="S2" s="62"/>
-      <c r="T2" s="62"/>
-      <c r="U2" s="68" t="s">
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="70" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="66" t="s">
+      <c r="V2" s="71"/>
+      <c r="W2" s="71"/>
+      <c r="X2" s="71"/>
+      <c r="Y2" s="71"/>
+      <c r="Z2" s="71"/>
+      <c r="AA2" s="71"/>
+      <c r="AB2" s="71"/>
+      <c r="AC2" s="71"/>
+      <c r="AD2" s="71"/>
+      <c r="AE2" s="71"/>
+      <c r="AF2" s="71"/>
+      <c r="AG2" s="71"/>
+      <c r="AH2" s="71"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="66"/>
-      <c r="AL2" s="66"/>
-      <c r="AM2" s="66"/>
-      <c r="AN2" s="66"/>
-      <c r="AO2" s="71">
+      <c r="AK2" s="73"/>
+      <c r="AL2" s="73"/>
+      <c r="AM2" s="73"/>
+      <c r="AN2" s="73"/>
+      <c r="AO2" s="74">
         <v>45748</v>
       </c>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="67"/>
-      <c r="AR2" s="67"/>
-      <c r="AS2" s="67"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="67"/>
-      <c r="AV2" s="66" t="s">
+      <c r="AP2" s="68"/>
+      <c r="AQ2" s="68"/>
+      <c r="AR2" s="68"/>
+      <c r="AS2" s="68"/>
+      <c r="AT2" s="68"/>
+      <c r="AU2" s="68"/>
+      <c r="AV2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="66"/>
-      <c r="AX2" s="66"/>
-      <c r="AY2" s="66"/>
-      <c r="AZ2" s="66"/>
-      <c r="BA2" s="67"/>
-      <c r="BB2" s="67"/>
-      <c r="BC2" s="67"/>
-      <c r="BD2" s="67"/>
-      <c r="BE2" s="67"/>
-      <c r="BF2" s="67"/>
+      <c r="AW2" s="73"/>
+      <c r="AX2" s="73"/>
+      <c r="AY2" s="73"/>
+      <c r="AZ2" s="73"/>
+      <c r="BA2" s="74">
+        <v>45882</v>
+      </c>
+      <c r="BB2" s="68"/>
+      <c r="BC2" s="68"/>
+      <c r="BD2" s="68"/>
+      <c r="BE2" s="68"/>
+      <c r="BF2" s="68"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="73"/>
-      <c r="X3" s="73"/>
-      <c r="Y3" s="73"/>
-      <c r="Z3" s="73"/>
-      <c r="AA3" s="73"/>
-      <c r="AB3" s="73"/>
-      <c r="AC3" s="73"/>
-      <c r="AD3" s="73"/>
-      <c r="AE3" s="73"/>
-      <c r="AF3" s="73"/>
-      <c r="AG3" s="73"/>
-      <c r="AH3" s="73"/>
-      <c r="AI3" s="73"/>
-      <c r="AJ3" s="73"/>
-      <c r="AK3" s="73"/>
-      <c r="AL3" s="73"/>
-      <c r="AM3" s="73"/>
-      <c r="AN3" s="74"/>
-      <c r="AO3" s="72" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="63"/>
+      <c r="M3" s="63"/>
+      <c r="N3" s="63"/>
+      <c r="O3" s="63"/>
+      <c r="P3" s="63"/>
+      <c r="Q3" s="63"/>
+      <c r="R3" s="63"/>
+      <c r="S3" s="63"/>
+      <c r="T3" s="63"/>
+      <c r="U3" s="63"/>
+      <c r="V3" s="63"/>
+      <c r="W3" s="63"/>
+      <c r="X3" s="63"/>
+      <c r="Y3" s="63"/>
+      <c r="Z3" s="63"/>
+      <c r="AA3" s="63"/>
+      <c r="AB3" s="63"/>
+      <c r="AC3" s="63"/>
+      <c r="AD3" s="63"/>
+      <c r="AE3" s="63"/>
+      <c r="AF3" s="63"/>
+      <c r="AG3" s="63"/>
+      <c r="AH3" s="63"/>
+      <c r="AI3" s="63"/>
+      <c r="AJ3" s="63"/>
+      <c r="AK3" s="63"/>
+      <c r="AL3" s="63"/>
+      <c r="AM3" s="63"/>
+      <c r="AN3" s="64"/>
+      <c r="AO3" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="73"/>
-      <c r="AQ3" s="73"/>
-      <c r="AR3" s="73"/>
-      <c r="AS3" s="73"/>
-      <c r="AT3" s="73"/>
-      <c r="AU3" s="73"/>
-      <c r="AV3" s="73"/>
-      <c r="AW3" s="73"/>
-      <c r="AX3" s="73"/>
-      <c r="AY3" s="73"/>
-      <c r="AZ3" s="73"/>
-      <c r="BA3" s="73"/>
-      <c r="BB3" s="73"/>
-      <c r="BC3" s="73"/>
-      <c r="BD3" s="73"/>
-      <c r="BE3" s="73"/>
-      <c r="BF3" s="74"/>
+      <c r="AP3" s="63"/>
+      <c r="AQ3" s="63"/>
+      <c r="AR3" s="63"/>
+      <c r="AS3" s="63"/>
+      <c r="AT3" s="63"/>
+      <c r="AU3" s="63"/>
+      <c r="AV3" s="63"/>
+      <c r="AW3" s="63"/>
+      <c r="AX3" s="63"/>
+      <c r="AY3" s="63"/>
+      <c r="AZ3" s="63"/>
+      <c r="BA3" s="63"/>
+      <c r="BB3" s="63"/>
+      <c r="BC3" s="63"/>
+      <c r="BD3" s="63"/>
+      <c r="BE3" s="63"/>
+      <c r="BF3" s="64"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -2435,98 +2439,98 @@
     <row r="5" spans="1:58">
       <c r="A5" s="2"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="77" t="s">
+      <c r="AO5" s="67" t="s">
         <v>27</v>
       </c>
-      <c r="AP5" s="54"/>
-      <c r="AQ5" s="54"/>
-      <c r="AR5" s="54"/>
-      <c r="AS5" s="54"/>
-      <c r="AT5" s="54"/>
-      <c r="AU5" s="75" t="s">
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="52"/>
+      <c r="AU5" s="65" t="s">
         <v>29</v>
       </c>
-      <c r="AV5" s="75"/>
-      <c r="AW5" s="75"/>
-      <c r="AX5" s="75"/>
-      <c r="AY5" s="75"/>
-      <c r="AZ5" s="75"/>
-      <c r="BA5" s="75"/>
-      <c r="BB5" s="75"/>
-      <c r="BC5" s="75"/>
-      <c r="BD5" s="75"/>
-      <c r="BE5" s="75"/>
-      <c r="BF5" s="76"/>
+      <c r="AV5" s="65"/>
+      <c r="AW5" s="65"/>
+      <c r="AX5" s="65"/>
+      <c r="AY5" s="65"/>
+      <c r="AZ5" s="65"/>
+      <c r="BA5" s="65"/>
+      <c r="BB5" s="65"/>
+      <c r="BC5" s="65"/>
+      <c r="BD5" s="65"/>
+      <c r="BE5" s="65"/>
+      <c r="BF5" s="66"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="77"/>
-      <c r="AP6" s="54"/>
-      <c r="AQ6" s="54"/>
-      <c r="AR6" s="54"/>
-      <c r="AS6" s="54"/>
-      <c r="AT6" s="54"/>
-      <c r="AU6" s="75"/>
-      <c r="AV6" s="75"/>
-      <c r="AW6" s="75"/>
-      <c r="AX6" s="75"/>
-      <c r="AY6" s="75"/>
-      <c r="AZ6" s="75"/>
-      <c r="BA6" s="75"/>
-      <c r="BB6" s="75"/>
-      <c r="BC6" s="75"/>
-      <c r="BD6" s="75"/>
-      <c r="BE6" s="75"/>
-      <c r="BF6" s="76"/>
+      <c r="AO6" s="67"/>
+      <c r="AP6" s="52"/>
+      <c r="AQ6" s="52"/>
+      <c r="AR6" s="52"/>
+      <c r="AS6" s="52"/>
+      <c r="AT6" s="52"/>
+      <c r="AU6" s="65"/>
+      <c r="AV6" s="65"/>
+      <c r="AW6" s="65"/>
+      <c r="AX6" s="65"/>
+      <c r="AY6" s="65"/>
+      <c r="AZ6" s="65"/>
+      <c r="BA6" s="65"/>
+      <c r="BB6" s="65"/>
+      <c r="BC6" s="65"/>
+      <c r="BD6" s="65"/>
+      <c r="BE6" s="65"/>
+      <c r="BF6" s="66"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="77" t="s">
+      <c r="AO7" s="67" t="s">
         <v>28</v>
       </c>
-      <c r="AP7" s="54"/>
-      <c r="AQ7" s="54"/>
-      <c r="AR7" s="54"/>
-      <c r="AS7" s="54"/>
-      <c r="AT7" s="54"/>
-      <c r="AU7" s="75" t="s">
+      <c r="AP7" s="52"/>
+      <c r="AQ7" s="52"/>
+      <c r="AR7" s="52"/>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="52"/>
+      <c r="AU7" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="AV7" s="75"/>
-      <c r="AW7" s="75"/>
-      <c r="AX7" s="75"/>
-      <c r="AY7" s="75"/>
-      <c r="AZ7" s="75"/>
-      <c r="BA7" s="75"/>
-      <c r="BB7" s="75"/>
-      <c r="BC7" s="75"/>
-      <c r="BD7" s="75"/>
-      <c r="BE7" s="75"/>
-      <c r="BF7" s="76"/>
+      <c r="AV7" s="65"/>
+      <c r="AW7" s="65"/>
+      <c r="AX7" s="65"/>
+      <c r="AY7" s="65"/>
+      <c r="AZ7" s="65"/>
+      <c r="BA7" s="65"/>
+      <c r="BB7" s="65"/>
+      <c r="BC7" s="65"/>
+      <c r="BD7" s="65"/>
+      <c r="BE7" s="65"/>
+      <c r="BF7" s="66"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="77"/>
-      <c r="AP8" s="54"/>
-      <c r="AQ8" s="54"/>
-      <c r="AR8" s="54"/>
-      <c r="AS8" s="54"/>
-      <c r="AT8" s="54"/>
-      <c r="AU8" s="75"/>
-      <c r="AV8" s="75"/>
-      <c r="AW8" s="75"/>
-      <c r="AX8" s="75"/>
-      <c r="AY8" s="75"/>
-      <c r="AZ8" s="75"/>
-      <c r="BA8" s="75"/>
-      <c r="BB8" s="75"/>
-      <c r="BC8" s="75"/>
-      <c r="BD8" s="75"/>
-      <c r="BE8" s="75"/>
-      <c r="BF8" s="76"/>
+      <c r="AO8" s="67"/>
+      <c r="AP8" s="52"/>
+      <c r="AQ8" s="52"/>
+      <c r="AR8" s="52"/>
+      <c r="AS8" s="52"/>
+      <c r="AT8" s="52"/>
+      <c r="AU8" s="65"/>
+      <c r="AV8" s="65"/>
+      <c r="AW8" s="65"/>
+      <c r="AX8" s="65"/>
+      <c r="AY8" s="65"/>
+      <c r="AZ8" s="65"/>
+      <c r="BA8" s="65"/>
+      <c r="BB8" s="65"/>
+      <c r="BC8" s="65"/>
+      <c r="BD8" s="65"/>
+      <c r="BE8" s="65"/>
+      <c r="BF8" s="66"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="2"/>
@@ -2978,12 +2982,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="U2:AI2"/>
@@ -2992,11 +2995,12 @@
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AO7:AT8"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/市場_2025改修/基本設計_2025/1_画面設計書(メニュー).xlsx
+++ b/市場_2025改修/基本設計_2025/1_画面設計書(メニュー).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\works\Git\si001\市場_2025改修\基本設計_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69B1069-1C88-48D5-94FD-4E3FEE7428F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F325CCF0-9D8C-484A-85B1-2115DEF495EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="888" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -867,6 +867,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -882,17 +891,26 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -900,26 +918,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -938,36 +968,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1060,22 +1060,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:colOff>91440</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>111253</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>35159</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2">
+        <xdr:cNvPr id="4" name="図 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91F991DD-3794-40E8-9071-3E8C73674CD3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86E68085-B3C3-E339-5460-5676923EDC37}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1084,15 +1084,21 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="133350" y="771525"/>
-          <a:ext cx="7216903" cy="4686300"/>
+          <a:off x="91440" y="929640"/>
+          <a:ext cx="6481679" cy="3802380"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1405,50 +1411,50 @@
     </row>
     <row r="6" spans="3:16" ht="22.5" customHeight="1">
       <c r="C6" s="13"/>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
-      <c r="K6" s="45"/>
-      <c r="L6" s="45"/>
-      <c r="M6" s="45"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="48"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="48"/>
       <c r="N6" s="14"/>
     </row>
     <row r="7" spans="3:16" ht="51" customHeight="1">
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
-      <c r="K7" s="47"/>
-      <c r="L7" s="47"/>
-      <c r="M7" s="47"/>
-      <c r="N7" s="48"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
+      <c r="M7" s="50"/>
+      <c r="N7" s="51"/>
     </row>
     <row r="8" spans="3:16" ht="39" customHeight="1">
       <c r="C8" s="13"/>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="48"/>
+      <c r="L8" s="48"/>
+      <c r="M8" s="48"/>
       <c r="N8" s="14"/>
     </row>
     <row r="9" spans="3:16" ht="22.5" customHeight="1" thickBot="1">
@@ -1471,10 +1477,10 @@
         <v>18</v>
       </c>
       <c r="G12" s="43"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="51"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="46"/>
       <c r="L12" s="18"/>
       <c r="M12" s="18"/>
       <c r="N12" s="18"/>
@@ -1497,42 +1503,42 @@
         <v>20</v>
       </c>
       <c r="G14" s="43"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="51"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
+      <c r="J14" s="45"/>
+      <c r="K14" s="46"/>
     </row>
     <row r="15" spans="3:16" ht="22.5" customHeight="1">
       <c r="F15" s="42" t="s">
         <v>21</v>
       </c>
       <c r="G15" s="43"/>
-      <c r="H15" s="49" t="s">
+      <c r="H15" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="51"/>
+      <c r="I15" s="45"/>
+      <c r="J15" s="45"/>
+      <c r="K15" s="46"/>
     </row>
     <row r="16" spans="3:16" ht="22.5" customHeight="1">
       <c r="F16" s="42" t="s">
         <v>22</v>
       </c>
       <c r="G16" s="43"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="51"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="45"/>
+      <c r="J16" s="45"/>
+      <c r="K16" s="46"/>
     </row>
     <row r="17" spans="6:16" ht="22.5" customHeight="1">
       <c r="F17" s="42" t="s">
         <v>23</v>
       </c>
       <c r="G17" s="43"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="51"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="45"/>
+      <c r="J17" s="45"/>
+      <c r="K17" s="46"/>
       <c r="N17" s="7" t="s">
         <v>33</v>
       </c>
@@ -1560,6 +1566,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D6:M6"/>
+    <mergeCell ref="C7:N7"/>
+    <mergeCell ref="D8:M8"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:K12"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:K17"/>
     <mergeCell ref="F14:G14"/>
@@ -1568,12 +1580,6 @@
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:K16"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="D6:M6"/>
-    <mergeCell ref="C7:N7"/>
-    <mergeCell ref="D8:M8"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:K12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1602,52 +1608,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="61" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="61"/>
-      <c r="J1" s="61"/>
-      <c r="K1" s="61"/>
-      <c r="L1" s="61"/>
-      <c r="M1" s="61"/>
-      <c r="N1" s="61"/>
-      <c r="O1" s="61"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
+      <c r="K1" s="56"/>
+      <c r="L1" s="56"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="56"/>
+      <c r="O1" s="56"/>
       <c r="P1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
+      <c r="Q1" s="55"/>
+      <c r="R1" s="55"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="56"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
+      <c r="G2" s="56"/>
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+      <c r="J2" s="56"/>
+      <c r="K2" s="56"/>
+      <c r="L2" s="56"/>
+      <c r="M2" s="56"/>
+      <c r="N2" s="56"/>
+      <c r="O2" s="56"/>
       <c r="P2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="60"/>
-      <c r="R2" s="60"/>
+      <c r="Q2" s="55"/>
+      <c r="R2" s="55"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="25"/>
@@ -1673,437 +1679,437 @@
       <c r="A4" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59" t="s">
+      <c r="C4" s="53"/>
+      <c r="D4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59" t="s">
+      <c r="E4" s="53"/>
+      <c r="F4" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59" t="s">
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="59"/>
-      <c r="K4" s="59"/>
-      <c r="L4" s="59"/>
-      <c r="M4" s="59"/>
-      <c r="N4" s="59"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="59"/>
-      <c r="Q4" s="59"/>
-      <c r="R4" s="59"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="27">
         <v>1</v>
       </c>
-      <c r="B5" s="55">
+      <c r="B5" s="57">
         <v>44621</v>
       </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="56" t="s">
+      <c r="C5" s="57"/>
+      <c r="D5" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56" t="s">
+      <c r="E5" s="58"/>
+      <c r="F5" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="K5" s="57"/>
-      <c r="L5" s="57"/>
-      <c r="M5" s="57"/>
-      <c r="N5" s="57"/>
-      <c r="O5" s="57"/>
-      <c r="P5" s="57"/>
-      <c r="Q5" s="57"/>
-      <c r="R5" s="57"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="61"/>
+      <c r="J5" s="61"/>
+      <c r="K5" s="61"/>
+      <c r="L5" s="61"/>
+      <c r="M5" s="61"/>
+      <c r="N5" s="61"/>
+      <c r="O5" s="61"/>
+      <c r="P5" s="61"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="61"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="28">
         <v>2</v>
       </c>
-      <c r="B6" s="53">
+      <c r="B6" s="59">
         <v>45870</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="54" t="s">
+      <c r="C6" s="59"/>
+      <c r="D6" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="28">
         <v>3</v>
       </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
-      <c r="H7" s="54"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-      <c r="M7" s="52"/>
-      <c r="N7" s="52"/>
-      <c r="O7" s="52"/>
-      <c r="P7" s="52"/>
-      <c r="Q7" s="52"/>
-      <c r="R7" s="52"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="60"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
+      <c r="G7" s="60"/>
+      <c r="H7" s="60"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
+      <c r="M7" s="54"/>
+      <c r="N7" s="54"/>
+      <c r="O7" s="54"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="28">
         <v>4</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
-      <c r="H8" s="54"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="52"/>
-      <c r="P8" s="52"/>
-      <c r="Q8" s="52"/>
-      <c r="R8" s="52"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="54"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="54"/>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="54"/>
+      <c r="R8" s="54"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="28">
         <v>5</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-      <c r="M9" s="52"/>
-      <c r="N9" s="52"/>
-      <c r="O9" s="52"/>
-      <c r="P9" s="52"/>
-      <c r="Q9" s="52"/>
-      <c r="R9" s="52"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
+      <c r="G9" s="60"/>
+      <c r="H9" s="60"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="28">
         <v>6</v>
       </c>
-      <c r="B10" s="53"/>
-      <c r="C10" s="53"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="52"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="52"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="28">
         <v>7</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="28">
         <v>8</v>
       </c>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
-      <c r="H12" s="54"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
-      <c r="R12" s="52"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="60"/>
+      <c r="E12" s="60"/>
+      <c r="F12" s="60"/>
+      <c r="G12" s="60"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="28">
         <v>9</v>
       </c>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
-      <c r="H13" s="54"/>
-      <c r="I13" s="52"/>
-      <c r="J13" s="52"/>
-      <c r="K13" s="52"/>
-      <c r="L13" s="52"/>
-      <c r="M13" s="52"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="52"/>
-      <c r="Q13" s="52"/>
-      <c r="R13" s="52"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="60"/>
+      <c r="E13" s="60"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="54"/>
+      <c r="J13" s="54"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="54"/>
+      <c r="N13" s="54"/>
+      <c r="O13" s="54"/>
+      <c r="P13" s="54"/>
+      <c r="Q13" s="54"/>
+      <c r="R13" s="54"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="28">
         <v>10</v>
       </c>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
-      <c r="R14" s="52"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="60"/>
+      <c r="E14" s="60"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="54"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="54"/>
+      <c r="N14" s="54"/>
+      <c r="O14" s="54"/>
+      <c r="P14" s="54"/>
+      <c r="Q14" s="54"/>
+      <c r="R14" s="54"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="28">
         <v>11</v>
       </c>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="52"/>
-      <c r="K15" s="52"/>
-      <c r="L15" s="52"/>
-      <c r="M15" s="52"/>
-      <c r="N15" s="52"/>
-      <c r="O15" s="52"/>
-      <c r="P15" s="52"/>
-      <c r="Q15" s="52"/>
-      <c r="R15" s="52"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="60"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="28">
         <v>12</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="54"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
-      <c r="R16" s="52"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+      <c r="N16" s="54"/>
+      <c r="O16" s="54"/>
+      <c r="P16" s="54"/>
+      <c r="Q16" s="54"/>
+      <c r="R16" s="54"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="28">
         <v>13</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="54"/>
-      <c r="H17" s="54"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="52"/>
-      <c r="L17" s="52"/>
-      <c r="M17" s="52"/>
-      <c r="N17" s="52"/>
-      <c r="O17" s="52"/>
-      <c r="P17" s="52"/>
-      <c r="Q17" s="52"/>
-      <c r="R17" s="52"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="54"/>
+      <c r="J17" s="54"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="54"/>
+      <c r="N17" s="54"/>
+      <c r="O17" s="54"/>
+      <c r="P17" s="54"/>
+      <c r="Q17" s="54"/>
+      <c r="R17" s="54"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="28">
         <v>14</v>
       </c>
-      <c r="B18" s="53"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="54"/>
-      <c r="H18" s="54"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
-      <c r="R18" s="52"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="54"/>
+      <c r="J18" s="54"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="54"/>
+      <c r="N18" s="54"/>
+      <c r="O18" s="54"/>
+      <c r="P18" s="54"/>
+      <c r="Q18" s="54"/>
+      <c r="R18" s="54"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="28">
         <v>15</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="54"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="52"/>
-      <c r="K19" s="52"/>
-      <c r="L19" s="52"/>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52"/>
-      <c r="O19" s="52"/>
-      <c r="P19" s="52"/>
-      <c r="Q19" s="52"/>
-      <c r="R19" s="52"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="54"/>
+      <c r="R19" s="54"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="28">
         <v>16</v>
       </c>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="54"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
-      <c r="K20" s="52"/>
-      <c r="L20" s="52"/>
-      <c r="M20" s="52"/>
-      <c r="N20" s="52"/>
-      <c r="O20" s="52"/>
-      <c r="P20" s="52"/>
-      <c r="Q20" s="52"/>
-      <c r="R20" s="52"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="54"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="54"/>
+      <c r="N20" s="54"/>
+      <c r="O20" s="54"/>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="54"/>
+      <c r="R20" s="54"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="28">
         <v>17</v>
       </c>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="54"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="52"/>
-      <c r="K21" s="52"/>
-      <c r="L21" s="52"/>
-      <c r="M21" s="52"/>
-      <c r="N21" s="52"/>
-      <c r="O21" s="52"/>
-      <c r="P21" s="52"/>
-      <c r="Q21" s="52"/>
-      <c r="R21" s="52"/>
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="54"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="54"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="54"/>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="54"/>
+      <c r="R21" s="54"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="28">
         <v>18</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
-      <c r="K22" s="52"/>
-      <c r="L22" s="52"/>
-      <c r="M22" s="52"/>
-      <c r="N22" s="52"/>
-      <c r="O22" s="52"/>
-      <c r="P22" s="52"/>
-      <c r="Q22" s="52"/>
-      <c r="R22" s="52"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="54"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1"/>
     <row r="24" spans="1:18" ht="27" customHeight="1"/>
@@ -2114,30 +2120,46 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
-    <mergeCell ref="A1:C2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="Q2:R2"/>
-    <mergeCell ref="D1:O2"/>
-    <mergeCell ref="I4:R4"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
     <mergeCell ref="I11:R11"/>
     <mergeCell ref="I12:R12"/>
     <mergeCell ref="B9:C9"/>
@@ -2154,46 +2176,30 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="Q2:R2"/>
+    <mergeCell ref="D1:O2"/>
+    <mergeCell ref="I4:R4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -2219,216 +2225,216 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="30" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
-      <c r="L1" s="69" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="75" t="str">
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="63" t="str">
         <f>表紙!C7</f>
         <v>施設使用料・償還金等料金計算及び納付書作成システム
 口座振替データ作成機能構築業務</v>
       </c>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
-      <c r="AH1" s="76"/>
-      <c r="AI1" s="77"/>
-      <c r="AJ1" s="73" t="s">
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="73"/>
-      <c r="AL1" s="73"/>
-      <c r="AM1" s="73"/>
-      <c r="AN1" s="73"/>
-      <c r="AO1" s="68" t="s">
+      <c r="AK1" s="66"/>
+      <c r="AL1" s="66"/>
+      <c r="AM1" s="66"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="AP1" s="68"/>
-      <c r="AQ1" s="68"/>
-      <c r="AR1" s="68"/>
-      <c r="AS1" s="68"/>
-      <c r="AT1" s="68"/>
-      <c r="AU1" s="68"/>
-      <c r="AV1" s="73" t="s">
+      <c r="AP1" s="67"/>
+      <c r="AQ1" s="67"/>
+      <c r="AR1" s="67"/>
+      <c r="AS1" s="67"/>
+      <c r="AT1" s="67"/>
+      <c r="AU1" s="67"/>
+      <c r="AV1" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="AW1" s="73"/>
-      <c r="AX1" s="73"/>
-      <c r="AY1" s="73"/>
-      <c r="AZ1" s="73"/>
-      <c r="BA1" s="68" t="s">
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="66"/>
+      <c r="AZ1" s="66"/>
+      <c r="BA1" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="BB1" s="68"/>
-      <c r="BC1" s="68"/>
-      <c r="BD1" s="68"/>
-      <c r="BE1" s="68"/>
-      <c r="BF1" s="68"/>
+      <c r="BB1" s="67"/>
+      <c r="BC1" s="67"/>
+      <c r="BD1" s="67"/>
+      <c r="BE1" s="67"/>
+      <c r="BF1" s="67"/>
     </row>
     <row r="2" spans="1:58" ht="18.75" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="58"/>
-      <c r="L2" s="69" t="s">
+      <c r="A2" s="52"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="52"/>
+      <c r="L2" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="70" t="s">
+      <c r="M2" s="62"/>
+      <c r="N2" s="62"/>
+      <c r="O2" s="62"/>
+      <c r="P2" s="62"/>
+      <c r="Q2" s="62"/>
+      <c r="R2" s="62"/>
+      <c r="S2" s="62"/>
+      <c r="T2" s="62"/>
+      <c r="U2" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
-      <c r="AH2" s="71"/>
-      <c r="AI2" s="72"/>
-      <c r="AJ2" s="73" t="s">
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="70"/>
+      <c r="AJ2" s="66" t="s">
         <v>4</v>
       </c>
-      <c r="AK2" s="73"/>
-      <c r="AL2" s="73"/>
-      <c r="AM2" s="73"/>
-      <c r="AN2" s="73"/>
-      <c r="AO2" s="74">
+      <c r="AK2" s="66"/>
+      <c r="AL2" s="66"/>
+      <c r="AM2" s="66"/>
+      <c r="AN2" s="66"/>
+      <c r="AO2" s="71">
         <v>45748</v>
       </c>
-      <c r="AP2" s="68"/>
-      <c r="AQ2" s="68"/>
-      <c r="AR2" s="68"/>
-      <c r="AS2" s="68"/>
-      <c r="AT2" s="68"/>
-      <c r="AU2" s="68"/>
-      <c r="AV2" s="73" t="s">
+      <c r="AP2" s="67"/>
+      <c r="AQ2" s="67"/>
+      <c r="AR2" s="67"/>
+      <c r="AS2" s="67"/>
+      <c r="AT2" s="67"/>
+      <c r="AU2" s="67"/>
+      <c r="AV2" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="AW2" s="73"/>
-      <c r="AX2" s="73"/>
-      <c r="AY2" s="73"/>
-      <c r="AZ2" s="73"/>
-      <c r="BA2" s="74">
+      <c r="AW2" s="66"/>
+      <c r="AX2" s="66"/>
+      <c r="AY2" s="66"/>
+      <c r="AZ2" s="66"/>
+      <c r="BA2" s="71">
         <v>45882</v>
       </c>
-      <c r="BB2" s="68"/>
-      <c r="BC2" s="68"/>
-      <c r="BD2" s="68"/>
-      <c r="BE2" s="68"/>
-      <c r="BF2" s="68"/>
+      <c r="BB2" s="67"/>
+      <c r="BC2" s="67"/>
+      <c r="BD2" s="67"/>
+      <c r="BE2" s="67"/>
+      <c r="BF2" s="67"/>
     </row>
     <row r="3" spans="1:58" ht="15" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="72" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="63"/>
-      <c r="M3" s="63"/>
-      <c r="N3" s="63"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="63"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="63"/>
-      <c r="S3" s="63"/>
-      <c r="T3" s="63"/>
-      <c r="U3" s="63"/>
-      <c r="V3" s="63"/>
-      <c r="W3" s="63"/>
-      <c r="X3" s="63"/>
-      <c r="Y3" s="63"/>
-      <c r="Z3" s="63"/>
-      <c r="AA3" s="63"/>
-      <c r="AB3" s="63"/>
-      <c r="AC3" s="63"/>
-      <c r="AD3" s="63"/>
-      <c r="AE3" s="63"/>
-      <c r="AF3" s="63"/>
-      <c r="AG3" s="63"/>
-      <c r="AH3" s="63"/>
-      <c r="AI3" s="63"/>
-      <c r="AJ3" s="63"/>
-      <c r="AK3" s="63"/>
-      <c r="AL3" s="63"/>
-      <c r="AM3" s="63"/>
-      <c r="AN3" s="64"/>
-      <c r="AO3" s="62" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="73"/>
+      <c r="X3" s="73"/>
+      <c r="Y3" s="73"/>
+      <c r="Z3" s="73"/>
+      <c r="AA3" s="73"/>
+      <c r="AB3" s="73"/>
+      <c r="AC3" s="73"/>
+      <c r="AD3" s="73"/>
+      <c r="AE3" s="73"/>
+      <c r="AF3" s="73"/>
+      <c r="AG3" s="73"/>
+      <c r="AH3" s="73"/>
+      <c r="AI3" s="73"/>
+      <c r="AJ3" s="73"/>
+      <c r="AK3" s="73"/>
+      <c r="AL3" s="73"/>
+      <c r="AM3" s="73"/>
+      <c r="AN3" s="74"/>
+      <c r="AO3" s="72" t="s">
         <v>15</v>
       </c>
-      <c r="AP3" s="63"/>
-      <c r="AQ3" s="63"/>
-      <c r="AR3" s="63"/>
-      <c r="AS3" s="63"/>
-      <c r="AT3" s="63"/>
-      <c r="AU3" s="63"/>
-      <c r="AV3" s="63"/>
-      <c r="AW3" s="63"/>
-      <c r="AX3" s="63"/>
-      <c r="AY3" s="63"/>
-      <c r="AZ3" s="63"/>
-      <c r="BA3" s="63"/>
-      <c r="BB3" s="63"/>
-      <c r="BC3" s="63"/>
-      <c r="BD3" s="63"/>
-      <c r="BE3" s="63"/>
-      <c r="BF3" s="64"/>
+      <c r="AP3" s="73"/>
+      <c r="AQ3" s="73"/>
+      <c r="AR3" s="73"/>
+      <c r="AS3" s="73"/>
+      <c r="AT3" s="73"/>
+      <c r="AU3" s="73"/>
+      <c r="AV3" s="73"/>
+      <c r="AW3" s="73"/>
+      <c r="AX3" s="73"/>
+      <c r="AY3" s="73"/>
+      <c r="AZ3" s="73"/>
+      <c r="BA3" s="73"/>
+      <c r="BB3" s="73"/>
+      <c r="BC3" s="73"/>
+      <c r="BD3" s="73"/>
+      <c r="BE3" s="73"/>
+      <c r="BF3" s="74"/>
     </row>
     <row r="4" spans="1:58">
       <c r="A4" s="2"/>
@@ -2439,98 +2445,98 @@
     <row r="5" spans="1:58">
       <c r="A5" s="2"/>
       <c r="AN5" s="3"/>
-      <c r="AO5" s="67" t="s">
+      <c r="AO5" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="52"/>
-      <c r="AU5" s="65" t="s">
+      <c r="AP5" s="54"/>
+      <c r="AQ5" s="54"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54"/>
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="75" t="s">
         <v>29</v>
       </c>
-      <c r="AV5" s="65"/>
-      <c r="AW5" s="65"/>
-      <c r="AX5" s="65"/>
-      <c r="AY5" s="65"/>
-      <c r="AZ5" s="65"/>
-      <c r="BA5" s="65"/>
-      <c r="BB5" s="65"/>
-      <c r="BC5" s="65"/>
-      <c r="BD5" s="65"/>
-      <c r="BE5" s="65"/>
-      <c r="BF5" s="66"/>
+      <c r="AV5" s="75"/>
+      <c r="AW5" s="75"/>
+      <c r="AX5" s="75"/>
+      <c r="AY5" s="75"/>
+      <c r="AZ5" s="75"/>
+      <c r="BA5" s="75"/>
+      <c r="BB5" s="75"/>
+      <c r="BC5" s="75"/>
+      <c r="BD5" s="75"/>
+      <c r="BE5" s="75"/>
+      <c r="BF5" s="76"/>
     </row>
     <row r="6" spans="1:58">
       <c r="A6" s="2"/>
       <c r="AN6" s="3"/>
-      <c r="AO6" s="67"/>
-      <c r="AP6" s="52"/>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="52"/>
-      <c r="AU6" s="65"/>
-      <c r="AV6" s="65"/>
-      <c r="AW6" s="65"/>
-      <c r="AX6" s="65"/>
-      <c r="AY6" s="65"/>
-      <c r="AZ6" s="65"/>
-      <c r="BA6" s="65"/>
-      <c r="BB6" s="65"/>
-      <c r="BC6" s="65"/>
-      <c r="BD6" s="65"/>
-      <c r="BE6" s="65"/>
-      <c r="BF6" s="66"/>
+      <c r="AO6" s="77"/>
+      <c r="AP6" s="54"/>
+      <c r="AQ6" s="54"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="54"/>
+      <c r="AU6" s="75"/>
+      <c r="AV6" s="75"/>
+      <c r="AW6" s="75"/>
+      <c r="AX6" s="75"/>
+      <c r="AY6" s="75"/>
+      <c r="AZ6" s="75"/>
+      <c r="BA6" s="75"/>
+      <c r="BB6" s="75"/>
+      <c r="BC6" s="75"/>
+      <c r="BD6" s="75"/>
+      <c r="BE6" s="75"/>
+      <c r="BF6" s="76"/>
     </row>
     <row r="7" spans="1:58">
       <c r="A7" s="2"/>
       <c r="AN7" s="3"/>
-      <c r="AO7" s="67" t="s">
+      <c r="AO7" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="AP7" s="52"/>
-      <c r="AQ7" s="52"/>
-      <c r="AR7" s="52"/>
-      <c r="AS7" s="52"/>
-      <c r="AT7" s="52"/>
-      <c r="AU7" s="65" t="s">
+      <c r="AP7" s="54"/>
+      <c r="AQ7" s="54"/>
+      <c r="AR7" s="54"/>
+      <c r="AS7" s="54"/>
+      <c r="AT7" s="54"/>
+      <c r="AU7" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="AV7" s="65"/>
-      <c r="AW7" s="65"/>
-      <c r="AX7" s="65"/>
-      <c r="AY7" s="65"/>
-      <c r="AZ7" s="65"/>
-      <c r="BA7" s="65"/>
-      <c r="BB7" s="65"/>
-      <c r="BC7" s="65"/>
-      <c r="BD7" s="65"/>
-      <c r="BE7" s="65"/>
-      <c r="BF7" s="66"/>
+      <c r="AV7" s="75"/>
+      <c r="AW7" s="75"/>
+      <c r="AX7" s="75"/>
+      <c r="AY7" s="75"/>
+      <c r="AZ7" s="75"/>
+      <c r="BA7" s="75"/>
+      <c r="BB7" s="75"/>
+      <c r="BC7" s="75"/>
+      <c r="BD7" s="75"/>
+      <c r="BE7" s="75"/>
+      <c r="BF7" s="76"/>
     </row>
     <row r="8" spans="1:58">
       <c r="A8" s="2"/>
       <c r="AN8" s="3"/>
-      <c r="AO8" s="67"/>
-      <c r="AP8" s="52"/>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="52"/>
-      <c r="AT8" s="52"/>
-      <c r="AU8" s="65"/>
-      <c r="AV8" s="65"/>
-      <c r="AW8" s="65"/>
-      <c r="AX8" s="65"/>
-      <c r="AY8" s="65"/>
-      <c r="AZ8" s="65"/>
-      <c r="BA8" s="65"/>
-      <c r="BB8" s="65"/>
-      <c r="BC8" s="65"/>
-      <c r="BD8" s="65"/>
-      <c r="BE8" s="65"/>
-      <c r="BF8" s="66"/>
+      <c r="AO8" s="77"/>
+      <c r="AP8" s="54"/>
+      <c r="AQ8" s="54"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
+      <c r="AT8" s="54"/>
+      <c r="AU8" s="75"/>
+      <c r="AV8" s="75"/>
+      <c r="AW8" s="75"/>
+      <c r="AX8" s="75"/>
+      <c r="AY8" s="75"/>
+      <c r="AZ8" s="75"/>
+      <c r="BA8" s="75"/>
+      <c r="BB8" s="75"/>
+      <c r="BC8" s="75"/>
+      <c r="BD8" s="75"/>
+      <c r="BE8" s="75"/>
+      <c r="BF8" s="76"/>
     </row>
     <row r="9" spans="1:58">
       <c r="A9" s="2"/>
@@ -2982,11 +2988,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A1:K2"/>
-    <mergeCell ref="L1:T1"/>
-    <mergeCell ref="U1:AI1"/>
-    <mergeCell ref="AJ1:AN1"/>
-    <mergeCell ref="AO1:AU1"/>
+    <mergeCell ref="A3:AN3"/>
+    <mergeCell ref="AO3:BF3"/>
+    <mergeCell ref="AU5:BF6"/>
+    <mergeCell ref="AU7:BF8"/>
+    <mergeCell ref="AO5:AT6"/>
+    <mergeCell ref="AO7:AT8"/>
     <mergeCell ref="BA1:BF1"/>
     <mergeCell ref="L2:T2"/>
     <mergeCell ref="U2:AI2"/>
@@ -2995,12 +3002,11 @@
     <mergeCell ref="AV2:AZ2"/>
     <mergeCell ref="BA2:BF2"/>
     <mergeCell ref="AV1:AZ1"/>
-    <mergeCell ref="A3:AN3"/>
-    <mergeCell ref="AO3:BF3"/>
-    <mergeCell ref="AU5:BF6"/>
-    <mergeCell ref="AU7:BF8"/>
-    <mergeCell ref="AO5:AT6"/>
-    <mergeCell ref="AO7:AT8"/>
+    <mergeCell ref="A1:K2"/>
+    <mergeCell ref="L1:T1"/>
+    <mergeCell ref="U1:AI1"/>
+    <mergeCell ref="AJ1:AN1"/>
+    <mergeCell ref="AO1:AU1"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
